--- a/trailing/res/【拖尾】拖尾技术研究.xlsx
+++ b/trailing/res/【拖尾】拖尾技术研究.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="制定点测试" sheetId="2" r:id="rId2"/>
+    <sheet name="shader" sheetId="3" r:id="rId2"/>
+    <sheet name="制定点测试" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>拖尾研究目标：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +121,34 @@
   </si>
   <si>
     <t>3 是否使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照jun的说明， 拖尾的整个出来的模型， 应该是 uv 是 0 -1 之间的部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以是向，通过uv 来控制透明 ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在的uv贴图需要横向制作， 是想做成竖直形状，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是在unity中制作的动画， key 亮度确实 或者颜色alpha 确实是可以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾部不消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾部消失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,6 +466,55 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56367</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B4443F-C4D9-4340-B13C-EAC8AD2A9C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="1409700"/>
+          <a:ext cx="6266667" cy="3542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1312,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1446,10 +1524,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B30:C30" r:id="rId1" display="尾部不消失"/>
+    <hyperlink ref="B32:C32" r:id="rId2" display="尾部消失"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U143"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152"/>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
